--- a/ApolloQA/Data/RatingManual/SC/CT.2.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/CT.2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CT.2" sheetId="1" r:id="R06ca4a498edf4371"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CT.2" sheetId="1" r:id="R538f1ecd771541a6"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1098,6 +1098,26 @@
         <x:v>10</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>LLC</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>AB13</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>400</x:v>
       </x:c>
       <x:c t="str">
